--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,95 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:18:27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>238001</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:24:19</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>238001</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17:28:07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X3BK036141</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WF-M5799</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EPSON</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BL. A (3º) - UTI A PST 3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.16.13.143</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>238001</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,14 +558,194 @@
           <t>10.16.13.143</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>238001</t>
-        </is>
+      <c r="H4" t="n">
+        <v>238001</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12:56:41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X3BK036141</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WF-M5799</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>EPSON</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BL. A (3º) - UTI A PST 3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.16.13.143</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>238001</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13:05:51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X3BK036141</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>WF-M5799</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EPSON</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BL. A (3º) - UTI A PST 3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.16.13.143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>238001</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>13:14:14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X3BK036141</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>WF-M5799</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EPSON</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BL. A (3º) - UTI A PST 3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.16.13.143</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>238001</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>kit roletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:19:17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X5UL003148</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>M3180</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EPSON</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BL. A (3º) - UTI A Supervisão</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>156234</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>unidade de imagem</t>
         </is>
       </c>
     </row>
